--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48893FF4-AA4C-442F-B867-D9FF664FB927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D424B7-101B-45F2-9802-4B28D41C7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>作成者</t>
   </si>
@@ -235,6 +235,53 @@
       <t>サキ</t>
     </rPh>
     <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のデータを持つ商品オブジェクトをデータベースから取得できること
+カテゴリ検索：文房具（categoryId=1）</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ブンボウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースから取得データのサイズと、期待するデータサイズが一致すること
+カテゴリが文房具の場合：
+テストデータに登録されたサイズ=14</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -455,11 +502,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,15 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,24 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -858,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -876,25 +923,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,23 +952,23 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -957,20 +1004,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -980,71 +1027,77 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
+    <row r="7" spans="1:17" ht="126.5" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -1060,27 +1113,35 @@
       <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1091,14 +1152,6 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D424B7-101B-45F2-9802-4B28D41C7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7E6C0-5345-451C-91D5-18C1BD578DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>作成者</t>
   </si>
@@ -176,12 +176,51 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>データベース更新したレコードと、期待する結果のレコードが一致すること</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>次のデータを持つ商品オブジェクトがデータベースに登録できること
-商品名：傘
-単価：2000円
-在庫数：20
-商品カテゴリ：雑貨
-画像：umbrella.jpg</t>
+prodName：傘
+price：2000円
+quqntity：20
+categoryName：雑貨
+imageUrl：umbrella.jpg</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
@@ -194,54 +233,74 @@
     <rPh sb="24" eb="26">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="41" eb="42">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ザッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルにあるレコードの一つを下記のデータへ更新できること
+prodName：日傘
+price：2500円
+quantity：20
+categoryName：雑貨
+imageUrl：umbrella.jpg</t>
+    <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルに登録されている下記のデータを持つレコードを削除できること
+prodId = 1</t>
+    <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="61" eb="63">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの商品テーブル左記のデータのレコードが登録されていること</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること</t>
     <rPh sb="7" eb="9">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>サキ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="26" eb="28">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>次のデータを持つ商品オブジェクトをデータベースから取得できること
-カテゴリ検索：文房具（categoryId=1）</t>
+categoryId=1　　（文房具）</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
@@ -254,34 +313,48 @@
     <rPh sb="25" eb="27">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="40" eb="43">
+    <rPh sb="48" eb="51">
       <t>ブンボウグ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースから取得データのサイズと、期待するデータサイズが一致すること
+    <t>取得データサイズと、期待するデータサイズが一致すること
+商品テーブルを一つ消した時のデータサイズ：24</t>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得データサイズと、期待するデータサイズが一致すること
 カテゴリが文房具の場合：
 テストデータに登録されたサイズ=14</t>
-    <rPh sb="8" eb="10">
+    <rPh sb="0" eb="2">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="10" eb="12">
       <t>キタイ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="21" eb="23">
       <t>イッチ</t>
     </rPh>
-    <rPh sb="42" eb="45">
+    <rPh sb="33" eb="36">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="46" eb="48">
+    <rPh sb="37" eb="39">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="48" eb="50">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -455,7 +528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +566,30 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -502,56 +599,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -905,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -918,61 +979,68 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="12">
+        <v>45496</v>
+      </c>
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1004,20 +1072,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="27" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1027,121 +1095,119 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="126.5" customHeight="1">
+    <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="42" customHeight="1">
+    <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="C8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
+  <mergeCells count="19">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1152,6 +1218,15 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7E6C0-5345-451C-91D5-18C1BD578DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1AC61-3FC5-48ED-9E74-778FC97651EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,21 +202,85 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
+    <t>商品テーブルに登録されている下記のデータを持つレコードを削除できること
+prodId = 1</t>
     <rPh sb="0" eb="2">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のデータを持つ商品オブジェクトをデータベースから取得できること
+categoryId=1　　（文房具）</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ブンボウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得データサイズと、期待するデータサイズが一致すること
+カテゴリが文房具の場合：
+テストデータに登録されたサイズ=14</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>次のデータを持つ商品オブジェクトがデータベースに登録できること
-prodName：傘
+prodName：テスト商品
 price：2000円
 quqntity：20
 categoryName：雑貨
@@ -233,20 +297,20 @@
     <rPh sb="24" eb="26">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="41" eb="42">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="44" eb="46">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
       <t>エン</t>
     </rPh>
-    <rPh sb="80" eb="82">
+    <rPh sb="84" eb="86">
       <t>ザッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>商品テーブルにあるレコードの一つを下記のデータへ更新できること
-prodName：日傘
+prodName：テスト商品2
 price：2500円
 quantity：20
 categoryName：雑貨
@@ -263,100 +327,30 @@
     <rPh sb="24" eb="26">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品テーブルに登録されている下記のデータを持つレコードを削除できること
-prodId = 1</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="44" eb="46">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次のデータを持つ商品オブジェクトをデータベースから取得できること
-categoryId=1　　（文房具）</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ブンボウグ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>取得データサイズと、期待するデータサイズが一致すること
-商品テーブルを一つ消した時のデータサイズ：24</t>
+商品テーブルのレコードを一つ消した時のデータサイズ：24</t>
     <rPh sb="28" eb="30">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="40" eb="41">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="42" eb="43">
       <t>ケ</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="45" eb="46">
       <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取得データサイズと、期待するデータサイズが一致すること
-カテゴリが文房具の場合：
-テストデータに登録されたサイズ=14</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウロク</t>
-    </rPh>
+    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -575,11 +569,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,29 +602,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -966,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -985,25 +979,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,27 +1008,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,20 +1066,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1095,10 +1089,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1107,15 +1101,15 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1124,8 +1118,8 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1134,15 +1128,15 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1151,21 +1145,21 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1186,28 +1180,36 @@
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1219,14 +1221,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1AC61-3FC5-48ED-9E74-778FC97651EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7A5736-F005-4DB6-BE64-E32375452AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -569,44 +572,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -960,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -979,25 +982,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,23 +1015,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,20 +1069,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1089,10 +1092,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1101,13 +1104,13 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
@@ -1118,8 +1121,8 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1128,13 +1131,13 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
@@ -1145,21 +1148,21 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1180,36 +1183,28 @@
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1221,6 +1216,14 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7A5736-F005-4DB6-BE64-E32375452AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F340A-3C88-4E2E-B2B6-002FB3B81EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,11 +572,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,29 +605,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -961,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -982,25 +985,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,23 +1018,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,20 +1072,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1092,10 +1095,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1104,13 +1107,13 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
@@ -1121,8 +1124,8 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1131,13 +1134,13 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
@@ -1148,21 +1151,23 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
       <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1173,38 +1178,71 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" ht="162.5" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1216,14 +1254,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F340A-3C88-4E2E-B2B6-002FB3B81EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9F60A-A334-4BFE-89AD-20D0D86CDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>作成者</t>
   </si>
@@ -172,22 +172,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース更新したレコードと、期待する結果のレコードが一致すること</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -218,19 +202,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -353,6 +324,139 @@
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること
+また商品在庫テーブルに登録された在庫数と期待する在庫数が一致すること</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ジッスウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベース更新したレコードと、期待する結果のレコードが一致すること
+また商品在庫テーブルに修正された在庫数と期待する在庫数が一致すること</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getProductByProductId(productId:Integer):Product</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得してきたレコードと期待するレコードの内容が一致すること
+productId = 1の場合
+prodName：水性ボールペン(黒)
+price：120
+quantity：10
+categoryName：文房具
+imageUrl：black_pen_w.jpg</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>ブンボウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルに登録されている下記のデータを持つレコードを取得すること
+productId = 1
+（テストをするときの注意）
+テストをするとき、商品テーブルにquantityデータがないため、商品在庫テーブルと結合して持ってくる必要がある</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -572,13 +676,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,33 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -967,7 +1071,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -985,56 +1089,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,20 +1176,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1095,10 +1199,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1107,25 +1211,25 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1134,25 +1238,25 @@
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11">
@@ -1161,25 +1265,25 @@
       <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
@@ -1188,61 +1292,55 @@
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="162.5" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1254,6 +1352,18 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9F60A-A334-4BFE-89AD-20D0D86CDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D27E32-9375-4D26-A733-6EDC3CE1FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>作成者</t>
   </si>
@@ -458,6 +458,28 @@
     <rPh sb="116" eb="118">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getProductList()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルからすべてのレコードのデータが引き出せていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectProductByPage(pageable: Pageable)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -676,47 +698,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1068,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1089,25 +1111,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,23 +1144,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1176,20 +1198,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1199,10 +1221,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1211,159 +1233,215 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="60" customHeight="1">
+    <row r="6" spans="1:17" ht="102" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" ht="162.5" customHeight="1">
+    <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" ht="162.5" customHeight="1">
       <c r="A9" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" ht="162.5" customHeight="1">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="68.5" customHeight="1">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="29">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D27E32-9375-4D26-A733-6EDC3CE1FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC08D33-64F1-4C78-B3A1-0E1C8E9F7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>作成者</t>
   </si>
@@ -138,11 +138,6 @@
   <si>
     <t>addProduct
 (formProduct:FormProduct)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>getProductListByCategoryId
-(categoryId:Integer)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -202,50 +197,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次のデータを持つ商品オブジェクトをデータベースから取得できること
-categoryId=1　　（文房具）</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ブンボウグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得データサイズと、期待するデータサイズが一致すること
-カテゴリが文房具の場合：
-テストデータに登録されたサイズ=14</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -461,25 +412,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>getProductList()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの商品テーブルからすべてのレコードのデータが引き出せていること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当該メソッドを実行</t>
+    <t>古市</t>
     <rPh sb="0" eb="2">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectProductByPage(pageable: Pageable)</t>
+      <t>フルイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectProductByPage(pageable: Pageable,categoryId:Integer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pageble=pageRequest.of(1,5)
+categoryId=null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new PageImple&lt;&gt;(repositpry.selectByPage(pageable: Pageable,categoryId:Integer),pageble,25)
+が得られること</t>
+    <rPh sb="92" eb="93">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -692,20 +649,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,31 +694,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1090,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1111,56 +1068,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1127,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -1198,20 +1157,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1221,10 +1180,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1233,219 +1192,193 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="162.5" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
-    <row r="6" spans="1:17" ht="102" customHeight="1">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
+    <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="20"/>
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="68.5" customHeight="1">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" ht="162.5" customHeight="1">
-      <c r="A9" s="11">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="28"/>
-    </row>
-    <row r="10" spans="1:17" ht="162.5" customHeight="1">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="68.5" customHeight="1">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="N9" s="29">
+        <v>45503</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
+  <mergeCells count="23">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC08D33-64F1-4C78-B3A1-0E1C8E9F7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC4E38-5F59-4720-8CC4-DB399B3E588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9030" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>作成者</t>
   </si>
@@ -437,6 +437,39 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>isProductExist(productForm:ProductForm):boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trueが得られること</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数にメソッドを実行
+productForm(
+productName=水性ボールペン(黒)
+)</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>クロ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -652,27 +685,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,21 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1047,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1068,25 +1101,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,23 +1134,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,20 +1190,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1180,10 +1213,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1192,31 +1225,31 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="15">
         <v>45503</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="162.5" customHeight="1">
       <c r="A6" s="11">
@@ -1225,31 +1258,31 @@
       <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="15">
         <v>45503</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11">
@@ -1258,31 +1291,31 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="16" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="15">
         <v>45503</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
@@ -1291,31 +1324,31 @@
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="15">
         <v>45503</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" ht="68.5" customHeight="1">
       <c r="A9" s="11">
@@ -1324,34 +1357,83 @@
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="15">
         <v>45503</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" ht="68.5" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
@@ -1362,19 +1444,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC4E38-5F59-4720-8CC4-DB399B3E588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F1E49E-475F-4E61-8F54-4D85759234B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9030" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="15140" windowHeight="9030" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>作成者</t>
   </si>
@@ -468,6 +468,40 @@
       <t>スイセイ</t>
     </rPh>
     <rPh sb="47" eb="48">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>isUpdateProductExist(updateProductForm:UpdateProductForm):boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>falseが得られること</t>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数にメソッドを実行
+updateProductForm(
+productId=1,
+productName=水性ボールペン(黒)
+)</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
       <t>クロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -688,46 +722,46 @@
     <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1101,25 +1135,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,23 +1168,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1190,20 +1224,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="27" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1213,10 +1247,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1225,20 +1259,20 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1248,8 +1282,8 @@
       <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="162.5" customHeight="1">
       <c r="A6" s="11">
@@ -1258,20 +1292,20 @@
       <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1281,8 +1315,8 @@
       <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11">
@@ -1291,20 +1325,20 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1314,8 +1348,8 @@
       <c r="O7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
@@ -1324,20 +1358,20 @@
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="11" t="s">
         <v>31</v>
       </c>
@@ -1347,8 +1381,8 @@
       <c r="O8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="68.5" customHeight="1">
       <c r="A9" s="11">
@@ -1357,20 +1391,20 @@
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1380,8 +1414,8 @@
       <c r="O9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="68.5" customHeight="1">
       <c r="A10" s="11">
@@ -1393,17 +1427,17 @@
       <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="21" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1413,37 +1447,73 @@
       <c r="O10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="68.5" customHeight="1">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/service/単体テスト仕様書-ProductService.xlsx
+++ b/plan/test/service/単体テスト仕様書-ProductService.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F1E49E-475F-4E61-8F54-4D85759234B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC7408-02EF-4853-81E4-C4ADC8DA9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="15140" windowHeight="9030" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DepartmentDAO!$A$1:$Q$15</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>作成者</t>
   </si>
@@ -503,6 +504,39 @@
     </rPh>
     <rPh sb="66" eb="67">
       <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updateProductStock(stock:ProductStock):void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数にメソッドを実行
+stock(
+id=1
+productId=1,
+quantity=15)
+)</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>quantityが１０から15になっていること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -722,47 +756,47 @@
     <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:L11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1135,25 +1169,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,23 +1202,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1224,20 +1258,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1247,10 +1281,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="102" customHeight="1">
       <c r="A5" s="11">
@@ -1259,20 +1293,20 @@
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1282,8 +1316,8 @@
       <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="162.5" customHeight="1">
       <c r="A6" s="11">
@@ -1292,20 +1326,20 @@
       <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="11" t="s">
         <v>31</v>
       </c>
@@ -1315,8 +1349,8 @@
       <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="162.5" customHeight="1">
       <c r="A7" s="11">
@@ -1325,20 +1359,20 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1348,8 +1382,8 @@
       <c r="O7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="162.5" customHeight="1">
       <c r="A8" s="11">
@@ -1358,20 +1392,20 @@
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11" t="s">
         <v>31</v>
       </c>
@@ -1381,8 +1415,8 @@
       <c r="O8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="68.5" customHeight="1">
       <c r="A9" s="11">
@@ -1391,20 +1425,20 @@
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1414,8 +1448,8 @@
       <c r="O9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="68.5" customHeight="1">
       <c r="A10" s="11">
@@ -1424,20 +1458,20 @@
       <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="17" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1447,8 +1481,8 @@
       <c r="O10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="28"/>
     </row>
     <row r="11" spans="1:17" ht="68.5" customHeight="1">
       <c r="A11" s="11">
@@ -1457,20 +1491,20 @@
       <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="17" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="11" t="s">
         <v>31</v>
       </c>
@@ -1480,22 +1514,56 @@
       <c r="O11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" ht="66.5" customHeight="1">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="15">
+        <v>45510</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
+  <mergeCells count="32">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="P6:Q6"/>
@@ -1505,15 +1573,17 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
